--- a/Serial/Serial/bin/Release/config.xlsx
+++ b/Serial/Serial/bin/Release/config.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EBAC67EB-B7A3-4CF2-85E8-F76DF39E3285}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CFBC87EF-1967-455A-A443-9697360C6F03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据一" sheetId="1" r:id="rId1"/>
     <sheet name="数据二" sheetId="2" r:id="rId2"/>
     <sheet name="数据三" sheetId="3" r:id="rId3"/>
     <sheet name="数据四" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="248">
   <si>
     <t>功能码：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>出水温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,145 +50,888 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>放大倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X5002</t>
+  </si>
+  <si>
+    <t>4X5003</t>
+  </si>
+  <si>
+    <t>4X5004</t>
+  </si>
+  <si>
+    <t>4X5005</t>
+  </si>
+  <si>
+    <t>4X5006</t>
+  </si>
+  <si>
+    <t>4X5007</t>
+  </si>
+  <si>
+    <t>4X5008</t>
+  </si>
+  <si>
+    <t>4X5009</t>
+  </si>
+  <si>
+    <t>4X5010</t>
+  </si>
+  <si>
+    <t>水泵状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电加热状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水流量保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内防冻保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电加热温度保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季防冻保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内机EEP故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回水温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出水温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷媒进温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷媒出温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X9002</t>
+  </si>
+  <si>
+    <t>0X9003</t>
+  </si>
+  <si>
+    <t>0X9004</t>
+  </si>
+  <si>
+    <t>0X9005</t>
+  </si>
+  <si>
+    <t>0X9006</t>
+  </si>
+  <si>
+    <t>0X9007</t>
+  </si>
+  <si>
+    <t>0X9008</t>
+  </si>
+  <si>
+    <t>0X9009</t>
+  </si>
+  <si>
+    <t>0X9010</t>
+  </si>
+  <si>
+    <t>0X9011</t>
+  </si>
+  <si>
+    <t>压缩机加热带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凝风机高速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凝风机中速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷凝风机低速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定速压缩机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济电磁阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底盘电加热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四通阀1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>液管电磁阀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>故障输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压保护</t>
+  </si>
+  <si>
+    <t>低压保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气温度过高保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸气温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化霜温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外温度传感器故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与驱动板的通讯故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与IDU的通讯故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>化霜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EEP故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC过压（主板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC欠压（主板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPM高温（主板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机过流（主板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压防冻结</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC过流（主板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外机拨码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷防冻结保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制热防高温保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展板通讯故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅路出口温度探头故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅路进口温度探头故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低频运行保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超环温保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPM故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC频率偏差过大</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机过电流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPM过温停机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PFC故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直流母线过欠压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC输入过欠电压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC输入过电流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGBT温度保护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>失步故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺相故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCU故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流检测电路故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>频率不稳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过功率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩机型号不匹配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X7001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0X7002</t>
+  </si>
+  <si>
+    <t>0X7003</t>
+  </si>
+  <si>
+    <t>0X7004</t>
+  </si>
+  <si>
+    <t>0X7005</t>
+  </si>
+  <si>
+    <t>0X7006</t>
+  </si>
+  <si>
+    <t>0X7007</t>
+  </si>
+  <si>
+    <t>0X7008</t>
+  </si>
+  <si>
+    <t>0X7009</t>
+  </si>
+  <si>
+    <t>0X7010</t>
+  </si>
+  <si>
+    <t>0X7011</t>
+  </si>
+  <si>
+    <t>0X7012</t>
+  </si>
+  <si>
+    <t>0X7013</t>
+  </si>
+  <si>
+    <t>0X7014</t>
+  </si>
+  <si>
+    <t>0X7015</t>
+  </si>
+  <si>
+    <t>0X7016</t>
+  </si>
+  <si>
+    <t>0X7017</t>
+  </si>
+  <si>
+    <t>0X7018</t>
+  </si>
+  <si>
+    <t>0X7019</t>
+  </si>
+  <si>
+    <t>0X7020</t>
+  </si>
+  <si>
+    <t>0X7021</t>
+  </si>
+  <si>
+    <t>0X7022</t>
+  </si>
+  <si>
+    <t>0X7023</t>
+  </si>
+  <si>
+    <t>0X7024</t>
+  </si>
+  <si>
+    <t>0X7025</t>
+  </si>
+  <si>
+    <t>0X7026</t>
+  </si>
+  <si>
+    <t>0X7027</t>
+  </si>
+  <si>
+    <t>0X7028</t>
+  </si>
+  <si>
+    <t>0X7029</t>
+  </si>
+  <si>
+    <t>0X7030</t>
+  </si>
+  <si>
+    <t>0X7031</t>
+  </si>
+  <si>
+    <t>0X7032</t>
+  </si>
+  <si>
+    <t>0X7033</t>
+  </si>
+  <si>
+    <t>0X7034</t>
+  </si>
+  <si>
+    <t>0X7035</t>
+  </si>
+  <si>
+    <t>0X7036</t>
+  </si>
+  <si>
+    <t>0X7037</t>
+  </si>
+  <si>
+    <t>0X7038</t>
+  </si>
+  <si>
+    <t>0X7039</t>
+  </si>
+  <si>
+    <t>0X7040</t>
+  </si>
+  <si>
+    <t>0X7041</t>
+  </si>
+  <si>
+    <t>0X7042</t>
+  </si>
+  <si>
+    <t>0X7043</t>
+  </si>
+  <si>
+    <t>0X7044</t>
+  </si>
+  <si>
+    <t>0X7045</t>
+  </si>
+  <si>
+    <t>0X7046</t>
+  </si>
+  <si>
+    <t>0X7047</t>
+  </si>
+  <si>
+    <t>0X7048</t>
+  </si>
+  <si>
+    <t>0X7049</t>
+  </si>
+  <si>
+    <t>0X7050</t>
+  </si>
+  <si>
+    <t>0X7051</t>
+  </si>
+  <si>
+    <t>0X7052</t>
+  </si>
+  <si>
+    <t>0X7053</t>
+  </si>
+  <si>
+    <t>0X7054</t>
+  </si>
+  <si>
+    <t>0X7055</t>
+  </si>
+  <si>
+    <t>0X7056</t>
+  </si>
+  <si>
+    <t>0X7057</t>
+  </si>
+  <si>
+    <t>0X7058</t>
+  </si>
+  <si>
+    <t>0X7059</t>
+  </si>
+  <si>
+    <t>0X7060</t>
+  </si>
+  <si>
+    <t>4X9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X9002</t>
+  </si>
+  <si>
+    <t>4X9003</t>
+  </si>
+  <si>
+    <t>4X9004</t>
+  </si>
+  <si>
+    <t>4X9005</t>
+  </si>
+  <si>
+    <t>4X9006</t>
+  </si>
+  <si>
+    <t>4X9007</t>
+  </si>
+  <si>
+    <t>4X9008</t>
+  </si>
+  <si>
+    <t>4X9009</t>
+  </si>
+  <si>
+    <t>4X9010</t>
+  </si>
+  <si>
+    <t>室内回水温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内出水温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内冷媒进温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内冷媒出温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内机拨码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开/关机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设定模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷设定温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制热设定温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季防冻等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排气温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7003</t>
+  </si>
+  <si>
+    <t>吸气温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7004</t>
+  </si>
+  <si>
+    <t>化霜温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7005</t>
+  </si>
+  <si>
+    <t>低压饱和温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7006</t>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7007</t>
+  </si>
+  <si>
+    <t>实际频率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7008</t>
+  </si>
+  <si>
+    <t>目标频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7009</t>
+  </si>
+  <si>
+    <t>计算能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7010</t>
+  </si>
+  <si>
+    <t>排气过热度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7011</t>
+  </si>
+  <si>
+    <t>吸气过热度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7012</t>
+  </si>
+  <si>
+    <t>EEV步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7013</t>
+  </si>
+  <si>
+    <t>故障状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7014</t>
+  </si>
+  <si>
+    <t>压缩机电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7015</t>
+  </si>
+  <si>
+    <t>AC电流　</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7016</t>
+  </si>
+  <si>
+    <t>IPM温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7017</t>
+  </si>
+  <si>
+    <t>PFC温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7018</t>
+  </si>
+  <si>
+    <t>AC电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7019</t>
+  </si>
+  <si>
+    <t>排气保护等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7020</t>
+  </si>
+  <si>
+    <t>压缩机保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7021</t>
+  </si>
+  <si>
+    <t>IPM温度保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7022</t>
+  </si>
+  <si>
+    <t>PFC温度保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7023</t>
+  </si>
+  <si>
+    <t>AC电流保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7024</t>
+  </si>
+  <si>
+    <t>Tn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低压压力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7028</t>
+  </si>
+  <si>
+    <t>低压防冻保护等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7029</t>
+  </si>
+  <si>
+    <t>辅路出口温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7030</t>
+  </si>
+  <si>
+    <t>辅路进口温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4X7031</t>
+  </si>
+  <si>
+    <t>4X7032</t>
+  </si>
+  <si>
+    <t>驱动类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅阀开度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放大倍数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水流故障</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X7001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0X7002</t>
-  </si>
-  <si>
-    <t>0X7003</t>
-  </si>
-  <si>
-    <t>0X7004</t>
-  </si>
-  <si>
-    <t>0X7005</t>
-  </si>
-  <si>
-    <t>0X7006</t>
-  </si>
-  <si>
-    <t>0X7007</t>
-  </si>
-  <si>
-    <t>0X7008</t>
-  </si>
-  <si>
-    <t>0X7009</t>
-  </si>
-  <si>
-    <t>0X7010</t>
-  </si>
-  <si>
-    <t>4X5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X5002</t>
-  </si>
-  <si>
-    <t>4X5003</t>
-  </si>
-  <si>
-    <t>4X5004</t>
-  </si>
-  <si>
-    <t>4X5005</t>
-  </si>
-  <si>
-    <t>4X5006</t>
-  </si>
-  <si>
-    <t>4X5007</t>
-  </si>
-  <si>
-    <t>4X5008</t>
-  </si>
-  <si>
-    <t>4X5009</t>
-  </si>
-  <si>
-    <t>4X5010</t>
-  </si>
-  <si>
-    <t>4X50001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X50002</t>
-  </si>
-  <si>
-    <t>4X50003</t>
-  </si>
-  <si>
-    <t>4X50004</t>
-  </si>
-  <si>
-    <t>4X50005</t>
-  </si>
-  <si>
-    <t>4X50006</t>
-  </si>
-  <si>
-    <t>4X50007</t>
-  </si>
-  <si>
-    <t>4X50008</t>
-  </si>
-  <si>
-    <t>4X50009</t>
-  </si>
-  <si>
-    <t>4X50010</t>
-  </si>
-  <si>
-    <t>4X50011</t>
-  </si>
-  <si>
-    <t>4X50012</t>
-  </si>
-  <si>
-    <t>4X50013</t>
-  </si>
-  <si>
-    <t>4X30001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4X30002</t>
-  </si>
-  <si>
-    <t>4X30003</t>
-  </si>
-  <si>
-    <t>4X30004</t>
-  </si>
-  <si>
-    <t>4X30005</t>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kpa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +945,25 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,14 +983,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{6CE3B3CD-14DE-4103-9A05-2E726D3061C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,13 +1273,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -531,27 +1298,27 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -559,16 +1326,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -576,16 +1343,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -593,16 +1360,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -610,15 +1377,91 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
     </row>
@@ -631,13 +1474,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80C9191-4A1F-473E-8D5B-B28EAFF6EC9E}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -653,233 +1499,520 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="C6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="C7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+      <c r="C8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="C9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+      <c r="C10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>243</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+      <c r="C11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+      <c r="C12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+      <c r="C13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+      <c r="C14" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>245</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>246</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
     </row>
@@ -914,21 +2047,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -939,10 +2072,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -953,10 +2086,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -967,10 +2100,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -981,10 +2114,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -995,10 +2128,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,10 +2142,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,10 +2156,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1037,10 +2170,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,10 +2184,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1072,13 +2205,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A62F5F5-F289-4858-93B9-872BA08F0649}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1094,21 +2230,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1119,10 +2255,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1133,10 +2269,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1147,10 +2283,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1161,10 +2297,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1175,10 +2311,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1189,10 +2325,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1203,10 +2339,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,10 +2353,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1231,15 +2367,29 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>2</v>
       </c>
     </row>
@@ -1248,4 +2398,887 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B0807-5E36-4FFF-B414-BC3763554FBF}">
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>